--- a/Documents/04_データベース定義書.xlsx
+++ b/Documents/04_データベース定義書.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -265,6 +265,52 @@
   </si>
   <si>
     <t>yyyymmdd_hhmm_[0-9][0-9]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>齋藤恭平</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>products, product_types</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type_id追加に伴いテーブル追加</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product_types</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1: drink/ 2: food</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -288,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +350,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,22 +424,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -405,8 +445,27 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,64 +771,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="7">
         <v>42456</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="7"/>
+      <c r="M1" s="3"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="11">
-        <v>42456</v>
-      </c>
-      <c r="J2" s="7"/>
+      <c r="I2" s="7">
+        <v>42462</v>
+      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="3"/>
       <c r="N2" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -781,135 +843,143 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="A6" s="13">
+        <v>42462</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="8"/>
       <c r="C15">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="8"/>
       <c r="C16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="8"/>
       <c r="C17">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="9"/>
       <c r="C19" t="s">
         <v>32</v>
       </c>
@@ -936,16 +1006,19 @@
       </c>
       <c r="K19" t="s">
         <v>39</v>
+      </c>
+      <c r="L19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="10"/>
       <c r="D20" t="s">
         <v>31</v>
       </c>
@@ -966,10 +1039,10 @@
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="11"/>
       <c r="D21" t="s">
         <v>42</v>
       </c>
@@ -987,10 +1060,10 @@
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="11"/>
       <c r="D22" t="s">
         <v>42</v>
       </c>
@@ -1008,10 +1081,10 @@
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="11"/>
       <c r="D23" t="s">
         <v>31</v>
       </c>
@@ -1024,27 +1097,33 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="14"/>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="I24" t="s">
         <v>41</v>
+      </c>
+      <c r="L24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="11"/>
       <c r="D25" t="s">
         <v>43</v>
       </c>
@@ -1053,76 +1132,76 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" t="s">
-        <v>44</v>
-      </c>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="15"/>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="12"/>
       <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="11"/>
       <c r="D30" t="s">
         <v>43</v>
       </c>
@@ -1131,90 +1210,87 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32">
-        <v>255</v>
-      </c>
-      <c r="I32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" t="s">
-        <v>41</v>
-      </c>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="11"/>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E33">
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="I33" t="s">
         <v>41</v>
       </c>
-      <c r="L33" t="s">
-        <v>44</v>
+      <c r="J33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="12"/>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E34">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
       </c>
       <c r="I34" t="s">
         <v>41</v>
+      </c>
+      <c r="L34" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="10"/>
       <c r="D35" t="s">
         <v>31</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="I35" t="s">
         <v>41</v>
@@ -1222,14 +1298,17 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="11"/>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
       </c>
       <c r="I36" t="s">
         <v>41</v>
@@ -1237,12 +1316,12 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="11"/>
       <c r="D37" t="s">
         <v>43</v>
       </c>
@@ -1250,20 +1329,134 @@
         <v>41</v>
       </c>
     </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="I41" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:N6"/>
+  <mergeCells count="52">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A2:G2"/>
@@ -1271,33 +1464,18 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/04_データベース定義書.xlsx
+++ b/Documents/04_データベース定義書.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="テーブル定義" sheetId="1" r:id="rId1"/>
+    <sheet name="ユーザ定義" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="68">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -310,6 +311,100 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ定義シート</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境構築につきユーザ作成</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ordersystem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>connectuser1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create session</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mysqladimn1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ作成SQl</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限付与SQL</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>connectuserpass1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mysqladminpass1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓'user_name'@'host_name'とやったほうが良いっぽい。</t>
+    <rPh sb="31" eb="32">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -424,10 +519,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -445,27 +559,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,55 +881,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="14">
         <v>42456</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="M1" s="10"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="14">
         <v>42462</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="10"/>
       <c r="N2" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -843,143 +941,143 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+      <c r="A6" s="2">
         <v>42462</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
       <c r="C15">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>32</v>
       </c>
@@ -1015,10 +1113,10 @@
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="8"/>
       <c r="D20" t="s">
         <v>31</v>
       </c>
@@ -1039,10 +1137,10 @@
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="6"/>
       <c r="D21" t="s">
         <v>42</v>
       </c>
@@ -1060,10 +1158,10 @@
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="6"/>
       <c r="D22" t="s">
         <v>42</v>
       </c>
@@ -1081,10 +1179,10 @@
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="6"/>
       <c r="D23" t="s">
         <v>31</v>
       </c>
@@ -1099,10 +1197,10 @@
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="5"/>
       <c r="D24" t="s">
         <v>31</v>
       </c>
@@ -1120,10 +1218,10 @@
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="6"/>
       <c r="D25" t="s">
         <v>43</v>
       </c>
@@ -1135,10 +1233,10 @@
       <c r="A26">
         <v>6</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="6"/>
       <c r="D26" t="s">
         <v>43</v>
       </c>
@@ -1147,19 +1245,19 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="4"/>
       <c r="D28" t="s">
         <v>42</v>
       </c>
@@ -1183,10 +1281,10 @@
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="7"/>
       <c r="D29" t="s">
         <v>31</v>
       </c>
@@ -1198,10 +1296,10 @@
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="6"/>
       <c r="D30" t="s">
         <v>43</v>
       </c>
@@ -1213,10 +1311,10 @@
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="6"/>
       <c r="D31" t="s">
         <v>43</v>
       </c>
@@ -1225,19 +1323,19 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="6"/>
       <c r="D33" t="s">
         <v>31</v>
       </c>
@@ -1258,10 +1356,10 @@
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="12"/>
+      <c r="C34" s="7"/>
       <c r="D34" t="s">
         <v>42</v>
       </c>
@@ -1282,10 +1380,10 @@
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="8"/>
       <c r="D35" t="s">
         <v>31</v>
       </c>
@@ -1300,10 +1398,10 @@
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="6"/>
       <c r="D36" t="s">
         <v>31</v>
       </c>
@@ -1318,10 +1416,10 @@
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="6"/>
       <c r="D37" t="s">
         <v>43</v>
       </c>
@@ -1333,10 +1431,10 @@
       <c r="A38">
         <v>6</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="6"/>
       <c r="D38" t="s">
         <v>43</v>
       </c>
@@ -1345,19 +1443,19 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="4"/>
       <c r="D40" t="s">
         <v>42</v>
       </c>
@@ -1375,10 +1473,10 @@
       <c r="A41">
         <v>2</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="5"/>
       <c r="D41" t="s">
         <v>42</v>
       </c>
@@ -1396,10 +1494,10 @@
       <c r="A42">
         <v>3</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="6"/>
       <c r="D42" t="s">
         <v>43</v>
       </c>
@@ -1411,10 +1509,10 @@
       <c r="A43">
         <v>4</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="11"/>
+      <c r="C43" s="6"/>
       <c r="D43" t="s">
         <v>43</v>
       </c>
@@ -1424,17 +1522,35 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
@@ -1447,23 +1563,301 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="14">
+        <v>42456</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="14">
+        <v>42577</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>42577</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" t="str">
+        <f>"create user " &amp; $C12 &amp; " identified  by '" &amp; $E12 &amp; "';"</f>
+        <v>create user mysqladimn1 identified  by 'mysqladminpass1';</v>
+      </c>
+      <c r="J12" t="str">
+        <f>"grant " &amp; $G12 &amp; " to " &amp; $C12 &amp; ";"</f>
+        <v>grant all to mysqladimn1;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I14" si="0">"create user " &amp; $C13 &amp; " identified  by '" &amp; $E13 &amp; "';"</f>
+        <v>create user connectuser1 identified  by 'connectuserpass1';</v>
+      </c>
+      <c r="J13" t="str">
+        <f>"grant " &amp; $G13 &amp; " to " &amp; $C13 &amp; ";"</f>
+        <v>grant create session to connectuser1;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>create user connectuser1 identified  by 'connectuserpass1';</v>
+      </c>
+      <c r="J14" t="str">
+        <f>"grant " &amp; $G14 &amp; " to " &amp; $C14 &amp; ";"</f>
+        <v>grant select table to connectuser1;</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="H5:N5"/>
@@ -1476,9 +1870,22 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="H8:N8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/04_データベース定義書.xlsx
+++ b/Documents/04_データベース定義書.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義" sheetId="1" r:id="rId1"/>
     <sheet name="ユーザ定義" sheetId="2" r:id="rId2"/>
+    <sheet name="ロール定義" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="77">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -357,19 +358,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>create session</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mysqladimn1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>all</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>select table</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -398,14 +387,85 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mysqladminpass1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↓'user_name'@'host_name'とやったほうが良いっぽい。</t>
-    <rPh sb="31" eb="32">
-      <t>ヨ</t>
-    </rPh>
+    <t>select Host, User, Password from mysql.user;</t>
+  </si>
+  <si>
+    <t>権限(ロール)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロール定義シート</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ作成につきロール作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロール名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>connect_role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ordersystem_sys_role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ordersystemadmin1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ordersystemadminpass1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロールセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限確認：</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ確認：</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show grants for ユーザ名;</t>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create, select, insert, update</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -519,29 +579,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -559,11 +601,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,55 +947,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="8">
         <v>42456</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10"/>
+      <c r="M1" s="4"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="8">
         <v>42462</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="10"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -941,81 +1007,81 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42462</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
@@ -1074,10 +1140,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="10"/>
       <c r="C19" t="s">
         <v>32</v>
       </c>
@@ -1113,10 +1179,10 @@
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="11"/>
       <c r="D20" t="s">
         <v>31</v>
       </c>
@@ -1137,10 +1203,10 @@
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="12"/>
       <c r="D21" t="s">
         <v>42</v>
       </c>
@@ -1158,10 +1224,10 @@
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="12"/>
       <c r="D22" t="s">
         <v>42</v>
       </c>
@@ -1179,10 +1245,10 @@
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="12"/>
       <c r="D23" t="s">
         <v>31</v>
       </c>
@@ -1197,10 +1263,10 @@
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="13"/>
       <c r="D24" t="s">
         <v>31</v>
       </c>
@@ -1218,10 +1284,10 @@
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="12"/>
       <c r="D25" t="s">
         <v>43</v>
       </c>
@@ -1233,10 +1299,10 @@
       <c r="A26">
         <v>6</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="12"/>
       <c r="D26" t="s">
         <v>43</v>
       </c>
@@ -1245,19 +1311,19 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="14"/>
       <c r="D28" t="s">
         <v>42</v>
       </c>
@@ -1281,10 +1347,10 @@
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="15"/>
       <c r="D29" t="s">
         <v>31</v>
       </c>
@@ -1296,10 +1362,10 @@
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="12"/>
       <c r="D30" t="s">
         <v>43</v>
       </c>
@@ -1311,10 +1377,10 @@
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="12"/>
       <c r="D31" t="s">
         <v>43</v>
       </c>
@@ -1323,19 +1389,19 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="12"/>
       <c r="D33" t="s">
         <v>31</v>
       </c>
@@ -1356,10 +1422,10 @@
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="15"/>
       <c r="D34" t="s">
         <v>42</v>
       </c>
@@ -1380,10 +1446,10 @@
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="11"/>
       <c r="D35" t="s">
         <v>31</v>
       </c>
@@ -1398,10 +1464,10 @@
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="12"/>
       <c r="D36" t="s">
         <v>31</v>
       </c>
@@ -1416,10 +1482,10 @@
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="12"/>
       <c r="D37" t="s">
         <v>43</v>
       </c>
@@ -1431,10 +1497,10 @@
       <c r="A38">
         <v>6</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="12"/>
       <c r="D38" t="s">
         <v>43</v>
       </c>
@@ -1443,19 +1509,19 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="14"/>
       <c r="D40" t="s">
         <v>42</v>
       </c>
@@ -1473,10 +1539,10 @@
       <c r="A41">
         <v>2</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="13"/>
       <c r="D41" t="s">
         <v>42</v>
       </c>
@@ -1494,10 +1560,10 @@
       <c r="A42">
         <v>3</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="12"/>
       <c r="D42" t="s">
         <v>43</v>
       </c>
@@ -1509,10 +1575,10 @@
       <c r="A43">
         <v>4</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="12"/>
       <c r="D43" t="s">
         <v>43</v>
       </c>
@@ -1522,6 +1588,603 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:N8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="8">
+        <v>42456</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8">
+        <v>42577</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>42577</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18" t="str">
+        <f>"create user " &amp; $C14 &amp; " identified  by '" &amp; $E14 &amp; "';"</f>
+        <v>create user ordersystemadmin1 identified  by 'ordersystemadminpass1';</v>
+      </c>
+      <c r="J14" s="18" t="str">
+        <f>"grant " &amp; $G14 &amp; " on " &amp; $A14 &amp; ".* to " &amp; $C14 &amp; ";"</f>
+        <v>grant ordersystem_sys_role on ordersystem.* to ordersystemadmin1;</v>
+      </c>
+      <c r="K14" s="18" t="str">
+        <f>"set role " &amp; $G14 &amp; ";"</f>
+        <v>set role ordersystem_sys_role;</v>
+      </c>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18" t="str">
+        <f>"create user " &amp; $C15 &amp; " identified  by '" &amp; $E15 &amp; "';"</f>
+        <v>create user connectuser1 identified  by 'connectuserpass1';</v>
+      </c>
+      <c r="J15" s="18" t="str">
+        <f>"grant " &amp; $G15 &amp; " on " &amp; $A15 &amp; ".* to " &amp; $C15 &amp; ";"</f>
+        <v>grant connect_role on ordersystem.* to connectuser1;</v>
+      </c>
+      <c r="K15" s="18" t="str">
+        <f>"set role " &amp; $G15 &amp; ";"</f>
+        <v>set role connect_role;</v>
+      </c>
+      <c r="L15" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="8">
+        <v>42456</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8">
+        <v>42577</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>42577</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" t="str">
+        <f>"create role " &amp; $C12 &amp; ";"</f>
+        <v>create role ordersystem_sys_role;</v>
+      </c>
+      <c r="H12" t="str">
+        <f>"grant " &amp; $E12 &amp; " on " &amp; $A12 &amp; ".* to " &amp; $C12 &amp; ";"</f>
+        <v>grant all on ordersystem.* to ordersystem_sys_role;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" t="str">
+        <f>"create role " &amp; $C13 &amp; ";"</f>
+        <v>create role connect_role;</v>
+      </c>
+      <c r="H13" t="str">
+        <f>"grant " &amp; $E13 &amp; " on " &amp; $A13 &amp; ".* to " &amp; $C13 &amp; ";"</f>
+        <v>grant create, select, insert, update on ordersystem.* to connect_role;</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="H7:N7"/>
@@ -1534,323 +2197,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="H6:N6"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="14">
-        <v>42456</v>
-      </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="14">
-        <v>42577</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>42577</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="I10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" t="str">
-        <f>"create user " &amp; $C12 &amp; " identified  by '" &amp; $E12 &amp; "';"</f>
-        <v>create user mysqladimn1 identified  by 'mysqladminpass1';</v>
-      </c>
-      <c r="J12" t="str">
-        <f>"grant " &amp; $G12 &amp; " to " &amp; $C12 &amp; ";"</f>
-        <v>grant all to mysqladimn1;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" t="str">
-        <f t="shared" ref="I13:I14" si="0">"create user " &amp; $C13 &amp; " identified  by '" &amp; $E13 &amp; "';"</f>
-        <v>create user connectuser1 identified  by 'connectuserpass1';</v>
-      </c>
-      <c r="J13" t="str">
-        <f>"grant " &amp; $G13 &amp; " to " &amp; $C13 &amp; ";"</f>
-        <v>grant create session to connectuser1;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="0"/>
-        <v>create user connectuser1 identified  by 'connectuserpass1';</v>
-      </c>
-      <c r="J14" t="str">
-        <f>"grant " &amp; $G14 &amp; " to " &amp; $C14 &amp; ";"</f>
-        <v>grant select table to connectuser1;</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="I1:J1"/>
@@ -1858,34 +2204,8 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/04_データベース定義書.xlsx
+++ b/Documents/04_データベース定義書.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="77">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -354,10 +354,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>connectuser1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>all</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -383,18 +379,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>connectuserpass1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>select Host, User, Password from mysql.user;</t>
-  </si>
-  <si>
-    <t>権限(ロール)</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ロール定義シート</t>
@@ -429,18 +414,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ordersystemadmin1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ordersystemadminpass1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロールセット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>権限確認：</t>
     <rPh sb="0" eb="2">
       <t>ケンゲン</t>
@@ -466,6 +439,30 @@
   </si>
   <si>
     <t>create, select, insert, update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create table, drop table, select, insert, update, delete on OrderSystem.*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orderadmin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OrderAdmin1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orderuser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OrderUser1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select, insert, update, delete on OrderSysetem.*</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -583,7 +580,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -601,35 +619,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,55 +944,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="15">
         <v>42456</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="11"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="15">
         <v>42462</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1007,143 +1004,143 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42462</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="10"/>
       <c r="C17">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="4"/>
       <c r="C19" t="s">
         <v>32</v>
       </c>
@@ -1179,10 +1176,10 @@
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="9"/>
       <c r="D20" t="s">
         <v>31</v>
       </c>
@@ -1203,10 +1200,10 @@
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="7"/>
       <c r="D21" t="s">
         <v>42</v>
       </c>
@@ -1224,10 +1221,10 @@
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="7"/>
       <c r="D22" t="s">
         <v>42</v>
       </c>
@@ -1245,10 +1242,10 @@
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="7"/>
       <c r="D23" t="s">
         <v>31</v>
       </c>
@@ -1263,10 +1260,10 @@
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="6"/>
       <c r="D24" t="s">
         <v>31</v>
       </c>
@@ -1284,10 +1281,10 @@
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="7"/>
       <c r="D25" t="s">
         <v>43</v>
       </c>
@@ -1299,10 +1296,10 @@
       <c r="A26">
         <v>6</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="7"/>
       <c r="D26" t="s">
         <v>43</v>
       </c>
@@ -1311,19 +1308,19 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="5"/>
       <c r="D28" t="s">
         <v>42</v>
       </c>
@@ -1347,10 +1344,10 @@
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="8"/>
       <c r="D29" t="s">
         <v>31</v>
       </c>
@@ -1362,10 +1359,10 @@
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="7"/>
       <c r="D30" t="s">
         <v>43</v>
       </c>
@@ -1377,10 +1374,10 @@
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="7"/>
       <c r="D31" t="s">
         <v>43</v>
       </c>
@@ -1389,19 +1386,19 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="12"/>
+      <c r="C33" s="7"/>
       <c r="D33" t="s">
         <v>31</v>
       </c>
@@ -1422,10 +1419,10 @@
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="8"/>
       <c r="D34" t="s">
         <v>42</v>
       </c>
@@ -1446,10 +1443,10 @@
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="9"/>
       <c r="D35" t="s">
         <v>31</v>
       </c>
@@ -1464,10 +1461,10 @@
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="7"/>
       <c r="D36" t="s">
         <v>31</v>
       </c>
@@ -1482,10 +1479,10 @@
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="12"/>
+      <c r="C37" s="7"/>
       <c r="D37" t="s">
         <v>43</v>
       </c>
@@ -1497,10 +1494,10 @@
       <c r="A38">
         <v>6</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="7"/>
       <c r="D38" t="s">
         <v>43</v>
       </c>
@@ -1509,19 +1506,19 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="5"/>
       <c r="D40" t="s">
         <v>42</v>
       </c>
@@ -1539,10 +1536,10 @@
       <c r="A41">
         <v>2</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="6"/>
       <c r="D41" t="s">
         <v>42</v>
       </c>
@@ -1560,10 +1557,10 @@
       <c r="A42">
         <v>3</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="7"/>
       <c r="D42" t="s">
         <v>43</v>
       </c>
@@ -1575,10 +1572,10 @@
       <c r="A43">
         <v>4</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="12"/>
+      <c r="C43" s="7"/>
       <c r="D43" t="s">
         <v>43</v>
       </c>
@@ -1588,17 +1585,35 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
@@ -1611,35 +1626,17 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1651,7 +1648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -1663,55 +1660,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="15">
         <v>42456</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="11"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="15">
         <v>42577</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1723,163 +1720,155 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42462</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42577</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="10"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
         <v>59</v>
-      </c>
-      <c r="J13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="17"/>
-      <c r="I14" s="18" t="str">
+      <c r="I14" s="3" t="str">
         <f>"create user " &amp; $C14 &amp; " identified  by '" &amp; $E14 &amp; "';"</f>
-        <v>create user ordersystemadmin1 identified  by 'ordersystemadminpass1';</v>
-      </c>
-      <c r="J14" s="18" t="str">
+        <v>create user orderadmin identified  by 'OrderAdmin1';</v>
+      </c>
+      <c r="J14" s="3" t="str">
         <f>"grant " &amp; $G14 &amp; " on " &amp; $A14 &amp; ".* to " &amp; $C14 &amp; ";"</f>
-        <v>grant ordersystem_sys_role on ordersystem.* to ordersystemadmin1;</v>
-      </c>
-      <c r="K14" s="18" t="str">
-        <f>"set role " &amp; $G14 &amp; ";"</f>
-        <v>set role ordersystem_sys_role;</v>
-      </c>
-      <c r="L14" s="18"/>
+        <v>grant create table, drop table, select, insert, update, delete on OrderSystem.* on ordersystem.* to orderadmin;</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
@@ -1887,33 +1876,51 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H15" s="17"/>
-      <c r="I15" s="18" t="str">
+      <c r="I15" s="3" t="str">
         <f>"create user " &amp; $C15 &amp; " identified  by '" &amp; $E15 &amp; "';"</f>
-        <v>create user connectuser1 identified  by 'connectuserpass1';</v>
-      </c>
-      <c r="J15" s="18" t="str">
+        <v>create user orderuser identified  by 'OrderUser1';</v>
+      </c>
+      <c r="J15" s="3" t="str">
         <f>"grant " &amp; $G15 &amp; " on " &amp; $A15 &amp; ".* to " &amp; $C15 &amp; ";"</f>
-        <v>grant connect_role on ordersystem.* to connectuser1;</v>
-      </c>
-      <c r="K15" s="18" t="str">
-        <f>"set role " &amp; $G15 &amp; ";"</f>
-        <v>set role connect_role;</v>
-      </c>
-      <c r="L15" s="18"/>
+        <v>grant select, insert, update, delete on OrderSysetem.* on ordersystem.* to orderuser;</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="G15:H15"/>
@@ -1923,28 +1930,7 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:N5"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1966,55 +1952,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="15">
         <v>42456</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="11"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="15">
         <v>42577</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -2026,123 +2012,123 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42462</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42577</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="4"/>
       <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
         <v>59</v>
       </c>
-      <c r="H11" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="18"/>
       <c r="G12" t="str">
         <f>"create role " &amp; $C12 &amp; ";"</f>
         <v>create role ordersystem_sys_role;</v>
@@ -2153,18 +2139,18 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="18"/>
       <c r="G13" t="str">
         <f>"create role " &amp; $C13 &amp; ";"</f>
         <v>create role connect_role;</v>
@@ -2176,6 +2162,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:N8"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
@@ -2185,25 +2190,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
